--- a/target/classes/com/qa/sf/keyword/scenarios/sf_keyword_scenarios.xlsx
+++ b/target/classes/com/qa/sf/keyword/scenarios/sf_keyword_scenarios.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UdemyWS\KeywordDrivenSF\src\main\java\com\qa\sf\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F1270-0B93-43BE-B441-5469DDC09840}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B1082F-8666-40CE-9748-B4E08B3807DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9C37ABC0-9F06-4C37-9585-5F2BDB635A89}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="forgotYourPassword" sheetId="2" r:id="rId2"/>
+    <sheet name="loginPageLinks" sheetId="2" r:id="rId2"/>
     <sheet name="lead" sheetId="6" r:id="rId3"/>
     <sheet name="locatorType" sheetId="4" r:id="rId4"/>
     <sheet name="action" sheetId="3" r:id="rId5"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="153">
   <si>
     <t>action</t>
   </si>
@@ -166,9 +166,6 @@
     <t>select</t>
   </si>
   <si>
-    <t>select value</t>
-  </si>
-  <si>
     <t>get page title</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>app name header</t>
   </si>
   <si>
-    <t>get app name header text</t>
-  </si>
-  <si>
     <t>span[class*=forceBreadCrumbItem]</t>
   </si>
   <si>
@@ -247,181 +241,259 @@
     <t>tc_009</t>
   </si>
   <si>
+    <t>click new button</t>
+  </si>
+  <si>
+    <t>//div[contains(text(),'New')]</t>
+  </si>
+  <si>
+    <t>input[class*='firstName']</t>
+  </si>
+  <si>
+    <t>(//a[@class='select'])[1]</t>
+  </si>
+  <si>
+    <t>//textarea[@class=' textarea']</t>
+  </si>
+  <si>
+    <t>click save button w/o compliting required fields</t>
+  </si>
+  <si>
+    <t>get error text</t>
+  </si>
+  <si>
+    <t>button[title='Save']</t>
+  </si>
+  <si>
+    <t>assertText</t>
+  </si>
+  <si>
+    <t>These required fields must be completed: Company, Last Name</t>
+  </si>
+  <si>
+    <t>//li[contains(text(),'These required fields must be completed: Company, Last Name')]</t>
+  </si>
+  <si>
+    <t>verifyElement</t>
+  </si>
+  <si>
+    <t>click close button</t>
+  </si>
+  <si>
+    <t>button[title='Cancel']</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>--None--'</t>
+  </si>
+  <si>
+    <t>select salutation value</t>
+  </si>
+  <si>
+    <t>enter first name</t>
+  </si>
+  <si>
+    <t>enter last name</t>
+  </si>
+  <si>
+    <t>enter company</t>
+  </si>
+  <si>
+    <t>input[class*='lastName']</t>
+  </si>
+  <si>
+    <t>(//input[@maxlength='255'])[2]</t>
+  </si>
+  <si>
+    <t>bpl company</t>
+  </si>
+  <si>
+    <t>click save button</t>
+  </si>
+  <si>
+    <t>testName</t>
+  </si>
+  <si>
+    <t>validate user login</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>validate home page</t>
+  </si>
+  <si>
+    <t>validate application name</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>isEnabled</t>
+  </si>
+  <si>
+    <t>isSelected</t>
+  </si>
+  <si>
+    <t>verify element is enabled</t>
+  </si>
+  <si>
+    <t>verify element is selected</t>
+  </si>
+  <si>
+    <t>verify element exists</t>
+  </si>
+  <si>
+    <t>select value from picklist</t>
+  </si>
+  <si>
+    <t>click tab element</t>
+  </si>
+  <si>
+    <t>assert current url</t>
+  </si>
+  <si>
+    <t>getTitle</t>
+  </si>
+  <si>
+    <t>assertTitle</t>
+  </si>
+  <si>
+    <t>getCurrentUrl</t>
+  </si>
+  <si>
+    <t>get current page title</t>
+  </si>
+  <si>
+    <t>enterUrl</t>
+  </si>
+  <si>
+    <t>verify page title</t>
+  </si>
+  <si>
+    <t>verify app name header text</t>
+  </si>
+  <si>
+    <t>verify home page title</t>
+  </si>
+  <si>
+    <t>validate home page url</t>
+  </si>
+  <si>
+    <t>verify home page url</t>
+  </si>
+  <si>
+    <t>https://ap4.lightning.force.com/lightning/page/home</t>
+  </si>
+  <si>
+    <t>validate "forgot your password?" link</t>
+  </si>
+  <si>
+    <t>validate "use custom domain?" link</t>
+  </si>
+  <si>
+    <t>verify "use custom domain?" link</t>
+  </si>
+  <si>
+    <t>verify "forgot your password?" link</t>
+  </si>
+  <si>
+    <t>Use Custom Doma</t>
+  </si>
+  <si>
+    <t>Forgot Your Password | Salesforce</t>
+  </si>
+  <si>
+    <t>Use Custom Domain | Salesforce</t>
+  </si>
+  <si>
+    <t>validate leads tab</t>
+  </si>
+  <si>
+    <t>validate leads page header</t>
+  </si>
+  <si>
+    <t>validate new button</t>
+  </si>
+  <si>
+    <t>validate required fields</t>
+  </si>
+  <si>
+    <t>verify error text</t>
+  </si>
+  <si>
+    <t>create a lead record</t>
+  </si>
+  <si>
+    <t>validate all the fields on new lead window</t>
+  </si>
+  <si>
+    <t>verify first name input field</t>
+  </si>
+  <si>
+    <t>verify salutation picklist</t>
+  </si>
+  <si>
+    <t>verify description text area</t>
+  </si>
+  <si>
+    <t>verify default salutation value</t>
+  </si>
+  <si>
+    <t>validate default picklist value</t>
+  </si>
+  <si>
+    <t>(//a[@class='select'])[4]</t>
+  </si>
+  <si>
+    <t>verify default lead status value</t>
+  </si>
+  <si>
+    <t>Open - Not Contacted</t>
+  </si>
+  <si>
+    <t>click details tab</t>
+  </si>
+  <si>
+    <t>click action dropdown icon</t>
+  </si>
+  <si>
+    <t>a[title*='more actions']</t>
+  </si>
+  <si>
+    <t>a[title*='Edit']</t>
+  </si>
+  <si>
+    <t>click edit</t>
+  </si>
+  <si>
+    <t>select lead status</t>
+  </si>
+  <si>
+    <t>Working - Contacted</t>
+  </si>
+  <si>
+    <t>change lead status- Working - Contacted</t>
+  </si>
+  <si>
     <t>tc_010</t>
   </si>
   <si>
-    <t>tc_011</t>
-  </si>
-  <si>
-    <t>tc_012</t>
-  </si>
-  <si>
-    <t>click new button</t>
-  </si>
-  <si>
-    <t>//div[contains(text(),'New')]</t>
-  </si>
-  <si>
-    <t>check first name input field</t>
-  </si>
-  <si>
-    <t>input[class*='firstName']</t>
-  </si>
-  <si>
-    <t>check salutation picklist</t>
-  </si>
-  <si>
-    <t>(//a[@class='select'])[1]</t>
-  </si>
-  <si>
-    <t>check description text area</t>
-  </si>
-  <si>
-    <t>//textarea[@class=' textarea']</t>
-  </si>
-  <si>
-    <t>click save button w/o compliting required fields</t>
-  </si>
-  <si>
-    <t>get error text</t>
-  </si>
-  <si>
-    <t>button[title='Save']</t>
-  </si>
-  <si>
-    <t>assert error text</t>
-  </si>
-  <si>
-    <t>assertText</t>
-  </si>
-  <si>
-    <t>tc_013</t>
-  </si>
-  <si>
-    <t>tc_014</t>
-  </si>
-  <si>
-    <t>tc_015</t>
-  </si>
-  <si>
-    <t>tc_016</t>
-  </si>
-  <si>
-    <t>These required fields must be completed: Company, Last Name</t>
-  </si>
-  <si>
-    <t>//li[contains(text(),'These required fields must be completed: Company, Last Name')]</t>
-  </si>
-  <si>
-    <t>verifyElement</t>
-  </si>
-  <si>
-    <t>click close button</t>
-  </si>
-  <si>
-    <t>button[title='Cancel']</t>
-  </si>
-  <si>
-    <t>tc_017</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Salutation</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>check default salutation value</t>
-  </si>
-  <si>
-    <t>--None--'</t>
-  </si>
-  <si>
-    <t>tc_018</t>
-  </si>
-  <si>
-    <t>select salutation value</t>
-  </si>
-  <si>
-    <t>Ms.</t>
-  </si>
-  <si>
-    <t>tc_019</t>
-  </si>
-  <si>
-    <t>tc_020</t>
-  </si>
-  <si>
-    <t>tc_021</t>
-  </si>
-  <si>
-    <t>enter first name</t>
-  </si>
-  <si>
-    <t>enter last name</t>
-  </si>
-  <si>
-    <t>enter company</t>
-  </si>
-  <si>
-    <t>input[class*='lastName']</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>(//input[@maxlength='255'])[2]</t>
-  </si>
-  <si>
-    <t>bpl company</t>
-  </si>
-  <si>
-    <t>tc_022</t>
-  </si>
-  <si>
-    <t>tc_024</t>
-  </si>
-  <si>
-    <t>click save button</t>
-  </si>
-  <si>
-    <t>tc_025</t>
-  </si>
-  <si>
-    <t>getPageTitle</t>
-  </si>
-  <si>
-    <t>assertPageTitle</t>
-  </si>
-  <si>
-    <t>assertCurrentUrl</t>
-  </si>
-  <si>
-    <t>testName</t>
-  </si>
-  <si>
-    <t>validate user login</t>
-  </si>
-  <si>
-    <t>verify forgot your password? Link</t>
-  </si>
-  <si>
-    <t>validate forgot your password? link</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>validate home page</t>
-  </si>
-  <si>
-    <t>validate application name</t>
-  </si>
-  <si>
-    <t>raju</t>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>li[title='Details']</t>
   </si>
 </sst>
 </file>
@@ -486,12 +558,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,13 +882,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5118698-AF7C-4BA7-BCD6-6F35D78659E6}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
@@ -830,7 +903,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -848,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -856,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -875,9 +948,6 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -888,36 +958,30 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
       <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -935,9 +999,6 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -945,19 +1006,16 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -965,7 +1023,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -975,11 +1033,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -988,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -996,13 +1051,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1011,18 +1066,21 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1031,27 +1089,27 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
+        <v>110</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -1061,28 +1119,25 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1108,6 +1163,7 @@
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{997195E7-6E52-4487-A9B1-F820F97E9E55}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{D4C8D939-BB99-4E61-A9A2-376950B39103}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{4E99D4B6-EA2C-4DB3-9D7E-5BBEDD779BA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1115,29 +1171,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C8ED09-61EC-4F22-9AAD-AD1CC727F7E8}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -1154,13 +1211,16 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1178,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -1189,15 +1249,15 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1212,32 +1272,136 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{05F794C8-E781-4CD3-92E5-296E03CDB118}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{0646F33B-2D50-4DA3-A8E0-BEA31B434A24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1245,527 +1409,625 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4502C2D0-A46B-4C98-9555-066354DECC3F}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G22" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G23" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
         <v>28</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G31" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{49FBD9E8-F130-4ED7-8B9C-815B5312A896}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{1B3D9BFD-0CD0-4676-8C75-6BCC01D1BB50}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{49FBD9E8-F130-4ED7-8B9C-815B5312A896}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{1B3D9BFD-0CD0-4676-8C75-6BCC01D1BB50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -1842,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8B023E-2EA2-45AE-B9AA-B4CE6457B2BE}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,22 +2150,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +2198,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,28 +2214,47 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
+      <c r="B18" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
